--- a/BSP/gpio_map.xlsx
+++ b/BSP/gpio_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>GPIO端口号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,57 @@
   </si>
   <si>
     <t>电机速度控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机速度控制(预留)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机3方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机4方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,6 +1123,72 @@
         <v>78</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BSP/gpio_map.xlsx
+++ b/BSP/gpio_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>GPIO端口号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,6 +1201,22 @@
         <v>92</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
